--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit2-App.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit2-App.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Slit2</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Slit2</t>
-  </si>
-  <si>
-    <t>App</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H2">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I2">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J2">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="N2">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="O2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="P2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="Q2">
-        <v>7.041955983411555</v>
+        <v>23.009753272</v>
       </c>
       <c r="R2">
-        <v>63.37760385070399</v>
+        <v>207.087779448</v>
       </c>
       <c r="S2">
-        <v>0.004860983855506444</v>
+        <v>0.01096066250383841</v>
       </c>
       <c r="T2">
-        <v>0.004860983855506444</v>
+        <v>0.01096066250383841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H3">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I3">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J3">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>263.560998</v>
       </c>
       <c r="O3">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="P3">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="Q3">
-        <v>6.490160291194667</v>
+        <v>20.51793084874667</v>
       </c>
       <c r="R3">
-        <v>58.41144262075201</v>
+        <v>184.66137763872</v>
       </c>
       <c r="S3">
-        <v>0.004480085429313096</v>
+        <v>0.009773686516833288</v>
       </c>
       <c r="T3">
-        <v>0.004480085429313096</v>
+        <v>0.009773686516833286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H4">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I4">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J4">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="N4">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="O4">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="P4">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="Q4">
-        <v>6.575248689013331</v>
+        <v>32.01222906632889</v>
       </c>
       <c r="R4">
-        <v>59.17723820111999</v>
+        <v>288.11006159696</v>
       </c>
       <c r="S4">
-        <v>0.004538821003500406</v>
+        <v>0.0152489787545253</v>
       </c>
       <c r="T4">
-        <v>0.004538821003500406</v>
+        <v>0.0152489787545253</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H5">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I5">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J5">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="N5">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="O5">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="P5">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="Q5">
-        <v>3.255998821330667</v>
+        <v>4.288319356604444</v>
       </c>
       <c r="R5">
-        <v>29.303989391976</v>
+        <v>38.59487420944001</v>
       </c>
       <c r="S5">
-        <v>0.002247579755016964</v>
+        <v>0.002042734688233939</v>
       </c>
       <c r="T5">
-        <v>0.002247579755016964</v>
+        <v>0.002042734688233939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H6">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I6">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J6">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="N6">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="O6">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="P6">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="Q6">
-        <v>5.359141828640888</v>
+        <v>21.16150263086222</v>
       </c>
       <c r="R6">
-        <v>48.23227645776799</v>
+        <v>190.45352367776</v>
       </c>
       <c r="S6">
-        <v>0.003699355970096832</v>
+        <v>0.01008025099918027</v>
       </c>
       <c r="T6">
-        <v>0.003699355970096832</v>
+        <v>0.01008025099918027</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H7">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I7">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J7">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="N7">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="O7">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="P7">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="Q7">
-        <v>5.031477811984</v>
+        <v>48.12443431367112</v>
       </c>
       <c r="R7">
-        <v>45.283300307856</v>
+        <v>433.11990882304</v>
       </c>
       <c r="S7">
-        <v>0.003473173145502139</v>
+        <v>0.02292400428917948</v>
       </c>
       <c r="T7">
-        <v>0.003473173145502138</v>
+        <v>0.02292400428917947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -918,13 +918,13 @@
         <v>2.538883</v>
       </c>
       <c r="H8">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I8">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J8">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="N8">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="O8">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="P8">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="Q8">
-        <v>242.0139831385393</v>
+        <v>250.1387506414499</v>
       </c>
       <c r="R8">
-        <v>2178.125848246854</v>
+        <v>2251.24875577305</v>
       </c>
       <c r="S8">
-        <v>0.1670595595335312</v>
+        <v>0.1191532300456701</v>
       </c>
       <c r="T8">
-        <v>0.1670595595335312</v>
+        <v>0.1191532300456701</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -980,13 +980,13 @@
         <v>2.538883</v>
       </c>
       <c r="H9">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I9">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J9">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>263.560998</v>
       </c>
       <c r="O9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="P9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="Q9">
-        <v>223.0501790950781</v>
+        <v>223.050179095078</v>
       </c>
       <c r="R9">
-        <v>2007.451611855703</v>
+        <v>2007.451611855702</v>
       </c>
       <c r="S9">
-        <v>0.1539690566233448</v>
+        <v>0.1062496283894036</v>
       </c>
       <c r="T9">
-        <v>0.1539690566233448</v>
+        <v>0.1062496283894036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,13 +1042,13 @@
         <v>2.538883</v>
       </c>
       <c r="H10">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I10">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J10">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="N10">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="O10">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="P10">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="Q10">
-        <v>225.97444930118</v>
+        <v>348.0045565566123</v>
       </c>
       <c r="R10">
-        <v>2033.77004371062</v>
+        <v>3132.041009009511</v>
       </c>
       <c r="S10">
-        <v>0.155987647806602</v>
+        <v>0.1657714643492755</v>
       </c>
       <c r="T10">
-        <v>0.155987647806602</v>
+        <v>0.1657714643492755</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,13 +1104,13 @@
         <v>2.538883</v>
       </c>
       <c r="H11">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I11">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J11">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="N11">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="O11">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="P11">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="Q11">
-        <v>111.900336454939</v>
+        <v>46.61826806799766</v>
       </c>
       <c r="R11">
-        <v>1007.103028094451</v>
+        <v>419.564412611979</v>
       </c>
       <c r="S11">
-        <v>0.07724355707626523</v>
+        <v>0.02220654418874507</v>
       </c>
       <c r="T11">
-        <v>0.07724355707626522</v>
+        <v>0.02220654418874507</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1166,13 +1166,13 @@
         <v>2.538883</v>
       </c>
       <c r="H12">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I12">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J12">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="N12">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="O12">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="P12">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="Q12">
-        <v>184.1799726111603</v>
+        <v>230.0464401859073</v>
       </c>
       <c r="R12">
-        <v>1657.619753500443</v>
+        <v>2070.417961673166</v>
       </c>
       <c r="S12">
-        <v>0.1271373856183539</v>
+        <v>0.1095822871840822</v>
       </c>
       <c r="T12">
-        <v>0.1271373856183539</v>
+        <v>0.1095822871840822</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1228,13 +1228,13 @@
         <v>2.538883</v>
       </c>
       <c r="H13">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I13">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J13">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="N13">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="O13">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="P13">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="Q13">
-        <v>172.918999951134</v>
+        <v>523.1601457107627</v>
       </c>
       <c r="R13">
-        <v>1556.270999560206</v>
+        <v>4708.441311396864</v>
       </c>
       <c r="S13">
-        <v>0.1193640614983744</v>
+        <v>0.2492065744821514</v>
       </c>
       <c r="T13">
-        <v>0.1193640614983743</v>
+        <v>0.2492065744821514</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H14">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I14">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J14">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="N14">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="O14">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="P14">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="Q14">
-        <v>0.002383075383333333</v>
+        <v>50.79420112139999</v>
       </c>
       <c r="R14">
-        <v>0.02144767845</v>
+        <v>457.1478100925999</v>
       </c>
       <c r="S14">
-        <v>1.645010419282133E-06</v>
+        <v>0.02419574382491257</v>
       </c>
       <c r="T14">
-        <v>1.645010419282132E-06</v>
+        <v>0.02419574382491256</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H15">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I15">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J15">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>263.560998</v>
       </c>
       <c r="O15">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="P15">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="Q15">
-        <v>0.00219634165</v>
+        <v>45.29348462829601</v>
       </c>
       <c r="R15">
-        <v>0.01976707485</v>
+        <v>407.641361654664</v>
       </c>
       <c r="S15">
-        <v>1.516110201054409E-06</v>
+        <v>0.02157548552411724</v>
       </c>
       <c r="T15">
-        <v>1.516110201054408E-06</v>
+        <v>0.02157548552411724</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H16">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I16">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J16">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="N16">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="O16">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="P16">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="Q16">
-        <v>0.002225136499999999</v>
+        <v>70.66723325182799</v>
       </c>
       <c r="R16">
-        <v>0.0200262285</v>
+        <v>636.0050992664519</v>
       </c>
       <c r="S16">
-        <v>1.535986965592763E-06</v>
+        <v>0.03366223377526852</v>
       </c>
       <c r="T16">
-        <v>1.535986965592763E-06</v>
+        <v>0.03366223377526852</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H17">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I17">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J17">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="N17">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="O17">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="P17">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="Q17">
-        <v>0.001101865825</v>
+        <v>9.466496806692</v>
       </c>
       <c r="R17">
-        <v>0.009916792425000001</v>
+        <v>85.198471260228</v>
       </c>
       <c r="S17">
-        <v>7.606057179108413E-07</v>
+        <v>0.004509351985015715</v>
       </c>
       <c r="T17">
-        <v>7.606057179108412E-07</v>
+        <v>0.004509351985015714</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H18">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I18">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J18">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="N18">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="O18">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="P18">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="Q18">
-        <v>0.001813592558333333</v>
+        <v>46.714174113768</v>
       </c>
       <c r="R18">
-        <v>0.016322333025</v>
+        <v>420.427567023912</v>
       </c>
       <c r="S18">
-        <v>1.251902762143371E-06</v>
+        <v>0.02225222889415412</v>
       </c>
       <c r="T18">
-        <v>1.251902762143371E-06</v>
+        <v>0.02225222889415412</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H19">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I19">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J19">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="N19">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="O19">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="P19">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="Q19">
-        <v>0.00170270745</v>
+        <v>106.235045916672</v>
       </c>
       <c r="R19">
-        <v>0.01532436705</v>
+        <v>956.1154132500481</v>
       </c>
       <c r="S19">
-        <v>1.17536000574243E-06</v>
+        <v>0.05060490960541311</v>
       </c>
       <c r="T19">
-        <v>1.17536000574243E-06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.557804</v>
-      </c>
-      <c r="H20">
-        <v>1.673412</v>
-      </c>
-      <c r="I20">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J20">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>95.32301533333333</v>
-      </c>
-      <c r="N20">
-        <v>285.969046</v>
-      </c>
-      <c r="O20">
-        <v>0.2086259240761469</v>
-      </c>
-      <c r="P20">
-        <v>0.2086259240761469</v>
-      </c>
-      <c r="Q20">
-        <v>53.17155924499466</v>
-      </c>
-      <c r="R20">
-        <v>478.544033204952</v>
-      </c>
-      <c r="S20">
-        <v>0.03670373567669003</v>
-      </c>
-      <c r="T20">
-        <v>0.03670373567669002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.557804</v>
-      </c>
-      <c r="H21">
-        <v>1.673412</v>
-      </c>
-      <c r="I21">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J21">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>87.85366600000002</v>
-      </c>
-      <c r="N21">
-        <v>263.560998</v>
-      </c>
-      <c r="O21">
-        <v>0.1922783515464171</v>
-      </c>
-      <c r="P21">
-        <v>0.1922783515464171</v>
-      </c>
-      <c r="Q21">
-        <v>49.00512630946401</v>
-      </c>
-      <c r="R21">
-        <v>441.046136785176</v>
-      </c>
-      <c r="S21">
-        <v>0.03382769338355814</v>
-      </c>
-      <c r="T21">
-        <v>0.03382769338355813</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.557804</v>
-      </c>
-      <c r="H22">
-        <v>1.673412</v>
-      </c>
-      <c r="I22">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J22">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>89.00545999999999</v>
-      </c>
-      <c r="N22">
-        <v>267.01638</v>
-      </c>
-      <c r="O22">
-        <v>0.1947991917312883</v>
-      </c>
-      <c r="P22">
-        <v>0.1947991917312882</v>
-      </c>
-      <c r="Q22">
-        <v>49.64760160983999</v>
-      </c>
-      <c r="R22">
-        <v>446.8284144885599</v>
-      </c>
-      <c r="S22">
-        <v>0.03427118693422022</v>
-      </c>
-      <c r="T22">
-        <v>0.03427118693422022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.557804</v>
-      </c>
-      <c r="H23">
-        <v>1.673412</v>
-      </c>
-      <c r="I23">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J23">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>44.07463300000001</v>
-      </c>
-      <c r="N23">
-        <v>132.223899</v>
-      </c>
-      <c r="O23">
-        <v>0.09646265391194167</v>
-      </c>
-      <c r="P23">
-        <v>0.09646265391194166</v>
-      </c>
-      <c r="Q23">
-        <v>24.585006585932</v>
-      </c>
-      <c r="R23">
-        <v>221.265059273388</v>
-      </c>
-      <c r="S23">
-        <v>0.01697075647494156</v>
-      </c>
-      <c r="T23">
-        <v>0.01697075647494155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.557804</v>
-      </c>
-      <c r="H24">
-        <v>1.673412</v>
-      </c>
-      <c r="I24">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J24">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>72.54370233333333</v>
-      </c>
-      <c r="N24">
-        <v>217.631107</v>
-      </c>
-      <c r="O24">
-        <v>0.1587706482245977</v>
-      </c>
-      <c r="P24">
-        <v>0.1587706482245977</v>
-      </c>
-      <c r="Q24">
-        <v>40.46516733634266</v>
-      </c>
-      <c r="R24">
-        <v>364.186506027084</v>
-      </c>
-      <c r="S24">
-        <v>0.02793265473338483</v>
-      </c>
-      <c r="T24">
-        <v>0.02793265473338483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.557804</v>
-      </c>
-      <c r="H25">
-        <v>1.673412</v>
-      </c>
-      <c r="I25">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J25">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>68.108298</v>
-      </c>
-      <c r="N25">
-        <v>204.324894</v>
-      </c>
-      <c r="O25">
-        <v>0.1490632305096083</v>
-      </c>
-      <c r="P25">
-        <v>0.1490632305096083</v>
-      </c>
-      <c r="Q25">
-        <v>37.991081057592</v>
-      </c>
-      <c r="R25">
-        <v>341.919729518328</v>
-      </c>
-      <c r="S25">
-        <v>0.02622482050572603</v>
-      </c>
-      <c r="T25">
-        <v>0.02622482050572602</v>
+        <v>0.0506049096054131</v>
       </c>
     </row>
   </sheetData>
